--- a/Materias/Materias.xlsx
+++ b/Materias/Materias.xlsx
@@ -234,7 +234,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,12 +259,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -278,13 +272,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -616,7 +609,7 @@
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -801,7 +794,7 @@
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -846,7 +839,7 @@
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>49</v>
       </c>
     </row>

--- a/Materias/Materias.xlsx
+++ b/Materias/Materias.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>TERCER CUATRIMESTRE</t>
   </si>
@@ -123,15 +123,6 @@
     <t>71.20 Modelos y Optimización III 6 71.15</t>
   </si>
   <si>
-    <t>71.58 Análisis y Resolución de Problemas de</t>
-  </si>
-  <si>
-    <t>Sistemas</t>
-  </si>
-  <si>
-    <t>6 71.15</t>
-  </si>
-  <si>
     <t>71.46 Ingeniería Económica 6 71.13</t>
   </si>
   <si>
@@ -211,6 +202,33 @@
   </si>
   <si>
     <t>75.72 Seminario de Ingeniería de Informática II 3 75.06-75.41</t>
+  </si>
+  <si>
+    <t>Creditos Obligatorias</t>
+  </si>
+  <si>
+    <t>Creditos Optativas</t>
+  </si>
+  <si>
+    <t>Total Creditos</t>
+  </si>
+  <si>
+    <t>Creditos</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>cred sumado</t>
+  </si>
+  <si>
+    <t>71.58 Análisis y Resolución de Problemas de Sistemas 6 71.15</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -272,12 +290,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,365 +592,825 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:B73"/>
+  <dimension ref="A2:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2">
+    <row r="2" spans="1:9">
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:2">
+      <c r="G3">
+        <f>SUM(E4:E34)</f>
+        <v>54</v>
+      </c>
+      <c r="H3">
+        <f>SUM(E37:E63)</f>
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <f>G3+H3</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:2">
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <f>IF(D4&gt;3,C4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E63" si="0">IF(D5&gt;3,C5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:2">
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G6" s="6">
+        <f>AVERAGE(D3:D71)</f>
+        <v>5.6363636363636367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:2">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:2">
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:2">
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:2">
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="2:2">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="2:2">
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="2:2">
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="2:2">
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="2:2">
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="2:2">
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="B21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="2:2">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="B23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="2:2">
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="2:2">
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="2:2">
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="B26" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="2:2">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="2:2">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="B28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="2:2">
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="B29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="2:2">
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="B30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="2:2">
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="B31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="2:2">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
       <c r="B33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
       <c r="B34" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="2:2">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
       <c r="B36" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="2:2">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
       <c r="B37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="2:2">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
       <c r="B38" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="39" spans="2:2">
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
       <c r="B39" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="2:2">
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
       <c r="B40" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="s">
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="4" t="s">
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" t="s">
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="B50" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="B51" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="4" t="s">
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="B52" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="4" t="s">
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="B53" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
+      <c r="C53">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="B54" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="2" t="s">
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="B55" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="4" t="s">
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="B56" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="B57" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" t="s">
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="B58" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" t="s">
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="B59" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="4" t="s">
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>6</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="B63" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" t="s">
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>9</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="B64" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
-      <c r="B61" t="s">
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Materias/Materias.xlsx
+++ b/Materias/Materias.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15315" windowHeight="11820"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15270" windowHeight="5580"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
   <si>
     <t>TERCER CUATRIMESTRE</t>
   </si>
@@ -229,6 +229,15 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Cred oblig restantes</t>
+  </si>
+  <si>
+    <t>Cred opt restantes</t>
+  </si>
+  <si>
+    <t>Total restante</t>
   </si>
 </sst>
 </file>
@@ -592,824 +601,897 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I71"/>
+  <dimension ref="A2:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="59.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
-      <c r="C2" t="s">
+    <row r="2" spans="1:10">
+      <c r="D2" t="s">
         <v>65</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>66</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>67</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>62</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>63</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <f>SUM(E4:E34)</f>
-        <v>54</v>
+    <row r="3" spans="1:10">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H3">
-        <f>SUM(E37:E63)</f>
+        <f>SUM(F4:F34)</f>
+        <v>78</v>
+      </c>
+      <c r="I3">
+        <f>SUM(F37:F63)</f>
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <f>H3+I3</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <f>IF(E4&gt;3,D4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F63" si="0">IF(E5&gt;3,D5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>130-$H$3</f>
+        <v>52</v>
+      </c>
+      <c r="I5">
+        <f>40-$I$3</f>
+        <v>24</v>
+      </c>
+      <c r="J5">
+        <f>$H$5+I5</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H8" s="6">
+        <f>AVERAGE($E$3:$E$71)</f>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="I3">
-        <f>G3+H3</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
         <v>8</v>
       </c>
-      <c r="E4">
-        <f>IF(D4&gt;3,C4,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E63" si="0">IF(D5&gt;3,C5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="B6" s="2" t="s">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
         <v>4</v>
       </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G6" s="6">
-        <f>AVERAGE(D3:D71)</f>
-        <v>5.6363636363636367</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>6</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>6</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>6</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="B20" s="2" t="s">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="C20" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" t="s">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="B22" s="1" t="s">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" t="s">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
         <v>21</v>
       </c>
-      <c r="C23">
-        <v>6</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="B24" s="3" t="s">
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="C24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>6</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="C25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C25">
-        <v>6</v>
-      </c>
       <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
         <v>4</v>
       </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="B26" t="s">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="C26" t="s">
         <v>19</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="B27" s="1" t="s">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="C27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="B28" t="s">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
         <v>25</v>
       </c>
-      <c r="C28">
-        <v>6</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="B29" t="s">
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
         <v>26</v>
       </c>
-      <c r="C29">
-        <v>6</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="B30" t="s">
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>6</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="C31" t="s">
         <v>28</v>
       </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="B32" s="1" t="s">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="C32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" t="s">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
         <v>30</v>
       </c>
-      <c r="C33">
-        <v>6</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" t="s">
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="C34" t="s">
         <v>19</v>
       </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="1" t="s">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="C36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" t="s">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="C37" t="s">
         <v>1</v>
       </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="4" t="s">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>4</v>
       </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="4" t="s">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>4</v>
       </c>
-      <c r="E39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" t="s">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="C40" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C40">
-        <v>6</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="5" t="s">
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="C41" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C41">
-        <v>6</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" t="s">
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="C42" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C42">
-        <v>6</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" t="s">
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="C43" t="s">
         <v>36</v>
       </c>
-      <c r="C43">
-        <v>6</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="4" t="s">
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C44">
-        <v>6</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="B45" t="s">
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="C45" t="s">
         <v>38</v>
       </c>
-      <c r="C45">
-        <v>6</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5">
-      <c r="B46" t="s">
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="C46" t="s">
         <v>39</v>
       </c>
-      <c r="C46">
-        <v>6</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5">
-      <c r="B47" t="s">
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="C47" t="s">
         <v>40</v>
       </c>
-      <c r="C47">
-        <v>6</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5">
-      <c r="B48" t="s">
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="C48" t="s">
         <v>41</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>8</v>
       </c>
-      <c r="E48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="4" t="s">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="C49" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>6</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="B50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="C50" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>4</v>
       </c>
-      <c r="E50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="B51" t="s">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="C51" t="s">
         <v>44</v>
       </c>
-      <c r="C51">
-        <v>6</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="B52" s="2" t="s">
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="C52" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C52">
-        <v>6</v>
-      </c>
       <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="E52">
         <v>4</v>
       </c>
-      <c r="E52">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="B53" s="4" t="s">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="C53" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C53">
-        <v>6</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="B54" t="s">
+      <c r="D53">
+        <v>6</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="C54" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>3</v>
       </c>
-      <c r="E54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="B55" t="s">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="C55" t="s">
         <v>48</v>
       </c>
-      <c r="C55">
-        <v>6</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="B56" t="s">
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="C56" t="s">
         <v>49</v>
       </c>
-      <c r="C56">
-        <v>6</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="B57" s="4" t="s">
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>3</v>
       </c>
-      <c r="E57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="B58" t="s">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="C58" t="s">
         <v>51</v>
       </c>
-      <c r="C58">
-        <v>6</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="B59" t="s">
+      <c r="D58">
+        <v>6</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="C59" t="s">
         <v>52</v>
       </c>
-      <c r="C59">
-        <v>6</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="B60" t="s">
+      <c r="D59">
+        <v>6</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="C60" t="s">
         <v>59</v>
       </c>
-      <c r="C60">
-        <v>6</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="B61" t="s">
+      <c r="D60">
+        <v>6</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>3</v>
       </c>
-      <c r="E61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="B62" t="s">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="C62" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>3</v>
       </c>
-      <c r="E62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="B63" s="2" t="s">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="C63" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>4</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>9</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="B64" t="s">
+    <row r="64" spans="1:6">
+      <c r="C64" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
-      <c r="B65" t="s">
+    <row r="65" spans="3:3">
+      <c r="C65" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
-      <c r="B66" t="s">
+    <row r="66" spans="3:3">
+      <c r="C66" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
-      <c r="B67" t="s">
+    <row r="67" spans="3:3">
+      <c r="C67" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
-      <c r="B68" t="s">
+    <row r="68" spans="3:3">
+      <c r="C68" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
-      <c r="B69" t="s">
+    <row r="69" spans="3:3">
+      <c r="C69" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
-      <c r="B70" t="s">
+    <row r="70" spans="3:3">
+      <c r="C70" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
-      <c r="B71" t="s">
+    <row r="71" spans="3:3">
+      <c r="C71" t="s">
         <v>58</v>
       </c>
     </row>
